--- a/data/raw/Japan_Life_Expectancy.xlsx
+++ b/data/raw/Japan_Life_Expectancy.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://thersacjp-my.sharepoint.com/personal/np_31m_3970_s_thers_ac_jp/Documents/Weekly challenges /Data science: Analytics/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://thersacjp-my.sharepoint.com/personal/np_31m_3970_s_thers_ac_jp/Documents/Weekly_challenges/Data science and Analytics/Japan_Life_Expectency/data/raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4E200C29-6C38-024F-A63D-41B00454155B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="8_{4E200C29-6C38-024F-A63D-41B00454155B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{44376403-86BB-E144-B8D6-3A49F7907EDA}"/>
   <bookViews>
     <workbookView xWindow="72960" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{39EED64E-FE06-4245-A3EF-77DBDB1DB449}"/>
   </bookViews>
@@ -773,6 +773,10 @@
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -1092,8 +1096,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98D93100-6094-3742-84DF-DE819FBF487C}">
   <dimension ref="A1:W48"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="183" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="A38" zoomScale="183" workbookViewId="0">
+      <selection activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
